--- a/biology/Zoologie/Heteroneura/Heteroneura.xlsx
+++ b/biology/Zoologie/Heteroneura/Heteroneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heteroneura sont un infra-ordre d'insectes, qui appartient à l'ordre des Lepidoptera (papillons) et au sous-ordre des Glossata[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heteroneura sont un infra-ordre d'insectes, qui appartient à l'ordre des Lepidoptera (papillons) et au sous-ordre des Glossata. 
 Ce groupe est caractérisé par sa nervation : il regroupe en effet les papillons hétéroneures, c'est-à-dire dont la disposition des nervures diffère entre l'aile antérieure et l'aile postérieure.
-Les Heteroneura comprennent plus de 99 % des espèces de lépidoptères connues, réparties dans 34 super-familles, classées comme suit, d'après une synthèse publiée en 2011[1] :
+Les Heteroneura comprennent plus de 99 % des espèces de lépidoptères connues, réparties dans 34 super-familles, classées comme suit, d'après une synthèse publiée en 2011 :
 clade des Nepticulina Meyrick, 1928
 super-famille des Nepticuloidea Stainton, 1854 — 2 familles
 clade des Eulepidoptera Kiriakoff, 1948
@@ -495,7 +507,7 @@
 super-famille des Palaephatoidea Davis, 1986 — 1 famille
 super-famille des Tischerioidea Spuler, 1898 — 1 famille
 clade des Ditrysia Börner, 1925 — 29 super-familles (voir l'article détaillé), qui regroupent 110 familles et environ 98 % des espèces de lépidoptères connues
-Une analyse génétique réalisée par Heikkila et al. (2015) permit de réaliser le cladogramme ci-dessous[2] :
+Une analyse génétique réalisée par Heikkila et al. (2015) permit de réaliser le cladogramme ci-dessous :
 </t>
         </is>
       </c>
